--- a/metrics/R2/Enfermedad renal terminal.xlsx
+++ b/metrics/R2/Enfermedad renal terminal.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9873412228871559</v>
+        <v>0.9871887808165811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9873858128778783</v>
+        <v>0.9870758190049945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871538242787518</v>
+        <v>0.9869636594144283</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9884897200534062</v>
+        <v>0.9898431639629728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9884898496544556</v>
+        <v>0.9898616323457405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9884897052042627</v>
+        <v>0.9898344444215605</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9780289945791417</v>
+        <v>0.9777414661189453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9782164055374163</v>
+        <v>0.9782772565925422</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9781981039836887</v>
+        <v>0.976481592000913</v>
       </c>
     </row>
   </sheetData>
